--- a/docs/12_분석용데이터셋예시/웹통계_데이터셋.xlsx
+++ b/docs/12_분석용데이터셋예시/웹통계_데이터셋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\docs\12_분석용데이터셋예시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259B233E-0720-41CE-9BC5-91D8B568DBA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1624B6-D6FA-45E9-815B-A4C8D304C097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{1E1DE32C-7598-4DB2-8F2C-AD181247484E}"/>
   </bookViews>
@@ -30,6 +30,434 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+  <si>
+    <t>유튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 컨텐츠 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일별 구독자수 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일별 구독자 수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일별 구독자수 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺾은선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1달간격 1일 평균 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 총 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 총 조회수를 통해서 컨텐츠당 평균 조회수 추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정 향후 구독자 수.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비슷한 구독자 수를 가진 크리에이터 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초간격 그래프도 제공함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠에 따라 그래프의 색이 구분됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 시청자수 성장 추세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달 간 총 스트리밍 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 방송시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청자 수 고점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 스트리밍 시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 평균 시청자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 스트리밍 runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 시간당 팔로워 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 시간 영상 송출 기기 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 스트리밍 한 컨텐츠 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별) 현재 시청자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 생성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 컨텐츠 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일별 총 조회수 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방숭중 시청자수 변화(최근 1주일간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90일간 총 조회수 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추세선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90일간 총 팔로워수 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90일간 스트리밍 별 평균 시청자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm=twitch metrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt = twitch tracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90일간 스트리밍 시간 및 컨텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전달대비 증가율 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 30일간 평균 시청자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 이전 30일 대비 증가율 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 시청자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 30일간 시청자수 최고점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청자수 최고점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 30일간 팔로워 변화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 30일 대비 증가율 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로워 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 30일간 Unique views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 30일간 시청된 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10명이 10시간 봤으면 100시간 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 시청된 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 Unique views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별)동시 시청자 수 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(개별)영상 클립 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>streamline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl-3</t>
+  </si>
+  <si>
+    <t>sl-4</t>
+  </si>
+  <si>
+    <t>sl-5</t>
+  </si>
+  <si>
+    <t>sl-6</t>
+  </si>
+  <si>
+    <t>sl-7</t>
+  </si>
+  <si>
+    <t>sl-8</t>
+  </si>
+  <si>
+    <t>sl-9</t>
+  </si>
+  <si>
+    <t>sl-10</t>
+  </si>
+  <si>
+    <t>sl-11</t>
+  </si>
+  <si>
+    <t>sl-12</t>
+  </si>
+  <si>
+    <t>sl-13</t>
+  </si>
+  <si>
+    <t>sl-14</t>
+  </si>
+  <si>
+    <t>tm-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm-4</t>
+  </si>
+  <si>
+    <t>tm-5</t>
+  </si>
+  <si>
+    <t>tt-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt-3</t>
+  </si>
+  <si>
+    <t>tt-4</t>
+  </si>
+  <si>
+    <t>tt-5</t>
+  </si>
+  <si>
+    <t>tt-6</t>
+  </si>
+  <si>
+    <t>tt-7</t>
+  </si>
+  <si>
+    <t>tt-8</t>
+  </si>
+  <si>
+    <t>tt-9</t>
+  </si>
+  <si>
+    <t>tt-10</t>
+  </si>
+  <si>
+    <t>tt-11</t>
+  </si>
+  <si>
+    <t>tt-12</t>
+  </si>
+  <si>
+    <t>tt-13</t>
+  </si>
+  <si>
+    <t>tt-14</t>
+  </si>
+  <si>
+    <t>tt-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt-17</t>
+  </si>
+  <si>
+    <t>tt-18</t>
+  </si>
+  <si>
+    <t>tt-19</t>
+  </si>
+  <si>
+    <t>tt-20</t>
+  </si>
+  <si>
+    <t>tt-21</t>
+  </si>
+  <si>
+    <t>tt-22</t>
+  </si>
+  <si>
+    <t>tt-23</t>
+  </si>
+  <si>
+    <t>시각화 및 유형 공백은 단순 수치형태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -49,20 +477,56 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -71,8 +535,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -90,6 +563,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1624330</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6A69AE-AAB7-48B8-9DA0-020627EA3235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11986260"/>
+          <a:ext cx="5731510" cy="2483485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,13 +909,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DF72A1-CBD2-4973-8E2E-D96CB7D9F14F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.296875" customWidth="1"/>
+    <col min="4" max="4" width="46.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/12_분석용데이터셋예시/웹통계_데이터셋.xlsx
+++ b/docs/12_분석용데이터셋예시/웹통계_데이터셋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\docs\12_분석용데이터셋예시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1624B6-D6FA-45E9-815B-A4C8D304C097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11A59A-DB7C-426A-BF90-DB79F65F2D05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{1E1DE32C-7598-4DB2-8F2C-AD181247484E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
   <si>
     <t>유튜브</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>streamline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,58 +305,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sl-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sl-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sl-3</t>
-  </si>
-  <si>
-    <t>sl-4</t>
-  </si>
-  <si>
-    <t>sl-5</t>
-  </si>
-  <si>
-    <t>sl-6</t>
-  </si>
-  <si>
-    <t>sl-7</t>
-  </si>
-  <si>
-    <t>sl-8</t>
-  </si>
-  <si>
-    <t>sl-9</t>
-  </si>
-  <si>
-    <t>sl-10</t>
-  </si>
-  <si>
-    <t>sl-11</t>
-  </si>
-  <si>
-    <t>sl-12</t>
-  </si>
-  <si>
-    <t>sl-13</t>
-  </si>
-  <si>
-    <t>sl-14</t>
-  </si>
-  <si>
     <t>tm-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +401,76 @@
   </si>
   <si>
     <t>시각화 및 유형 공백은 단순 수치형태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twitchmetrics.net/c/103825127-hanryang1125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>social blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb-3</t>
+  </si>
+  <si>
+    <t>sb-4</t>
+  </si>
+  <si>
+    <t>sb-5</t>
+  </si>
+  <si>
+    <t>sb-6</t>
+  </si>
+  <si>
+    <t>sb-7</t>
+  </si>
+  <si>
+    <t>sb-8</t>
+  </si>
+  <si>
+    <t>sb-9</t>
+  </si>
+  <si>
+    <t>sb-10</t>
+  </si>
+  <si>
+    <t>sb-11</t>
+  </si>
+  <si>
+    <t>sb-12</t>
+  </si>
+  <si>
+    <t>sb-13</t>
+  </si>
+  <si>
+    <t>sb-14</t>
+  </si>
+  <si>
+    <t>https://socialblade.com/youtube/channel/UC-i2ywiuvjvpTy2zW-tXfkw</t>
+  </si>
+  <si>
+    <t>https://twitchtracker.com/zilioner</t>
+  </si>
+  <si>
+    <t>https://twitchtracker.com/zilioner/streams/31981646496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +489,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -530,12 +557,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,9 +578,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,31 +946,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DF72A1-CBD2-4973-8E2E-D96CB7D9F14F}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36.296875" customWidth="1"/>
     <col min="4" max="4" width="46.8984375" customWidth="1"/>
+    <col min="7" max="7" width="57.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,13 +985,16 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,13 +1002,16 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -975,13 +1019,14 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,13 +1034,14 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,13 +1049,14 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1017,13 +1064,14 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1031,13 +1079,14 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1051,13 +1100,14 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1067,13 +1117,14 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1081,13 +1132,14 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1095,13 +1147,14 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1113,13 +1166,14 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1133,13 +1187,14 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1147,13 +1202,14 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1161,14 +1217,15 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1196,10 +1253,13 @@
         <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1216,10 +1276,13 @@
         <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -1234,10 +1297,11 @@
         <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1252,10 +1316,11 @@
         <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1270,10 +1335,11 @@
         <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -1288,10 +1354,11 @@
         <v>45</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1301,13 +1368,16 @@
         <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1315,13 +1385,14 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -1331,13 +1402,14 @@
         <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
@@ -1345,13 +1417,14 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -1359,13 +1432,14 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
@@ -1373,13 +1447,14 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -1389,13 +1464,14 @@
         <v>55</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -1403,13 +1479,14 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -1419,13 +1496,14 @@
         <v>55</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -1433,13 +1511,14 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -1449,13 +1528,14 @@
         <v>59</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
@@ -1463,13 +1543,14 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1477,13 +1558,14 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
@@ -1491,13 +1573,14 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1505,7 +1588,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
@@ -1517,13 +1600,16 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
@@ -1535,13 +1621,14 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1549,13 +1636,14 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
@@ -1563,13 +1651,14 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
@@ -1577,13 +1666,14 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
@@ -1595,13 +1685,14 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
@@ -1609,13 +1700,14 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -1623,13 +1715,14 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>33</v>
       </c>
@@ -1637,23 +1730,34 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G43:G51"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G5:G18"/>
+    <mergeCell ref="G28:G41"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{E9819740-4B19-4FB6-B4FC-E47FC41BD30A}"/>
+    <hyperlink ref="G43" r:id="rId2" xr:uid="{6B18DDC4-0D73-41A0-8216-76A3E85BEE58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/12_분석용데이터셋예시/웹통계_데이터셋.xlsx
+++ b/docs/12_분석용데이터셋예시/웹통계_데이터셋.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\docs\12_분석용데이터셋예시\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OnAD_project\docs\12_분석용데이터셋예시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11A59A-DB7C-426A-BF90-DB79F65F2D05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0508B7E-56F6-4DA3-8E3E-F63B04970A19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{1E1DE32C-7598-4DB2-8F2C-AD181247484E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="1" xr2:uid="{1E1DE32C-7598-4DB2-8F2C-AD181247484E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="145">
   <si>
     <t>유튜브</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +472,110 @@
   </si>
   <si>
     <t>참조링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 제공 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13T24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T13T22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T13T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y36Y39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y36Y38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y36Y37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y38Y39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,8 +622,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7C7E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -549,6 +660,135 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -565,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +823,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DF72A1-CBD2-4973-8E2E-D96CB7D9F14F}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1760,4 +2039,575 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615F44C4-D13F-4FE6-B171-11F4FA05DDEA}">
+  <dimension ref="D3:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="34.59765625" customWidth="1"/>
+    <col min="7" max="7" width="33.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>